--- a/vlans.xlsx
+++ b/vlans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,36 +457,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>administracion</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>172.123.123.123</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>255.255.255.128</t>
-        </is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>906</v>
+        <v>104</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>keralty</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.103.13.0</t>
+          <t>172.19.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -497,58 +493,382 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>998</v>
+        <v>916</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISE</t>
+          <t>TUYA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10.103.240.0</t>
+          <t>10.103.32.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salud_Total</t>
+          <t>BELCORP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.103.8.0</t>
+          <t>10.103.37.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>939</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>ALKOSTO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.103.56.128</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>255.255.255.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>942</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RECAUDOS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.103.39.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>255.255.255.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>944</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PREVISORA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.103.59.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>255.255.255.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>947</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.103.60.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>948</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ADDI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.103.61.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>255.255.255.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>953</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COLPENSIONES</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.103.41.128</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>255.255.255.192</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>955</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LABORATORIO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.103.64.128</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>255.255.255.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>962</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TUBOLETA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.103.66.128</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>255.255.255.192</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>963</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PAPA_JHONS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.103.66.192</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>255.255.255.192</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>966</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NOVONORDISK</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.103.67.128</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>255.255.255.192</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>969</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CLINICA COUNTRY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.103.68.64</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>255.255.255.192</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>980</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CONINSA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.103.70.128</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>255.255.255.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>983</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JUAN VALDEZ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.103.70.224</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>255.255.255.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>986</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LIDERES SALUD TOTAL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.103.71.64</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>255.255.255.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>995</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PARMALAT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.103.44.144</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>255.255.255.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>997</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IMPRESOREAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.103.45.176</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>255.255.255.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>917</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>COLMEDICA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.103.86.0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
       </c>
     </row>
   </sheetData>
